--- a/results/mp/logistic/corona/confidence/168/0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>warning</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -82,12 +85,18 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -106,6 +115,12 @@
     <t>free</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
@@ -115,133 +130,136 @@
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -599,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7534246575342466</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -868,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5882352941176471</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,37 +936,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5333333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5263157894736842</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8459530026109661</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4594594594594595</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,16 +1057,16 @@
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4166666666666667</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4126984126984127</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3313953488372093</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C13">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>345</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3137254901960784</v>
+        <v>0.3217054263565892</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7948717948717948</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3050847457627119</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7887323943661971</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.24</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -1336,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7735849056603774</v>
+        <v>0.79375</v>
       </c>
       <c r="L16">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="M16">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1677852348993289</v>
+        <v>0.28</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7727272727272727</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1194444444444445</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.765625</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,37 +1486,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005802707930367505</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>3084</v>
+        <v>123</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,37 +1536,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.004171494785631518</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E20">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5800000000000001</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>4297</v>
+        <v>321</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,89 +1586,137 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003881234232485931</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>239</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.004832474226804124</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>0.17</v>
+      </c>
+      <c r="F22">
+        <v>0.83</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>3089</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>0.75</v>
+      </c>
+      <c r="L22">
+        <v>96</v>
+      </c>
+      <c r="M22">
+        <v>96</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>32</v>
       </c>
-      <c r="E21">
-        <v>0.38</v>
-      </c>
-      <c r="F21">
-        <v>0.62</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>5133</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L21">
-        <v>34</v>
-      </c>
-      <c r="M21">
-        <v>34</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L22">
-        <v>44</v>
-      </c>
-      <c r="M22">
-        <v>44</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>19</v>
-      </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.004173429167632739</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>0.45</v>
+      </c>
+      <c r="F23">
+        <v>0.55</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>4295</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6976744186046512</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1666,17 +1732,41 @@
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.003104987385988744</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>0.43</v>
+      </c>
+      <c r="F24">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>5137</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.696969696969697</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1688,21 +1778,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.6857142857142857</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1714,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.6818181818181818</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1740,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.6808510638297872</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1766,21 +1856,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1792,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1818,21 +1908,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1844,21 +1934,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.64</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1870,21 +1960,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.6205882352941177</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L32">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M32">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1896,21 +1986,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K33">
         <v>0.6</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1922,21 +2012,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1948,21 +2038,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.5774058577405857</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L35">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="M35">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1974,21 +2064,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.574468085106383</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2000,21 +2090,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2026,21 +2116,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.5661016949152542</v>
+        <v>0.575</v>
       </c>
       <c r="L38">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2052,12 +2142,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K39">
         <v>0.5652173913043478</v>
@@ -2083,16 +2173,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.5454545454545454</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2104,21 +2194,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.5384615384615384</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2130,21 +2220,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.5142857142857142</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2156,21 +2246,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.4943820224719101</v>
+        <v>0.5</v>
       </c>
       <c r="L43">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2182,21 +2272,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.4642857142857143</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2208,21 +2298,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.4285714285714285</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2234,47 +2324,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.3717948717948718</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L46">
+        <v>16</v>
+      </c>
+      <c r="M46">
+        <v>16</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>29</v>
-      </c>
-      <c r="M46">
-        <v>29</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>49</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2286,21 +2376,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.273972602739726</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2317,16 +2407,16 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.2372881355932203</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2338,59 +2428,137 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.00562429696287964</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>2652</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.003016241299303944</v>
+        <v>0.01167639699749791</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N51">
-        <v>0.42</v>
+        <v>0.93</v>
       </c>
       <c r="O51">
-        <v>0.5800000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4297</v>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52">
+        <v>0.00600375234521576</v>
+      </c>
+      <c r="L52">
+        <v>16</v>
+      </c>
+      <c r="M52">
+        <v>24</v>
+      </c>
+      <c r="N52">
+        <v>0.67</v>
+      </c>
+      <c r="O52">
+        <v>0.33</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53">
+        <v>0.003480278422273782</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
+        <v>33</v>
+      </c>
+      <c r="N53">
+        <v>0.45</v>
+      </c>
+      <c r="O53">
+        <v>0.55</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54">
+        <v>0.003210272873194221</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>28</v>
+      </c>
+      <c r="N54">
+        <v>0.57</v>
+      </c>
+      <c r="O54">
+        <v>0.43</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4968</v>
       </c>
     </row>
   </sheetData>
